--- a/008_リスクマネジメント/リスク登録簿 兼 課題ログ.xlsx
+++ b/008_リスクマネジメント/リスク登録簿 兼 課題ログ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanakahda/Desktop/project-management-toolbox/008_リスクマネジメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622CC82C-2485-EF4B-9DE0-E1153E67010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC2CE92-9B40-3E4E-B132-F94CDD5B099B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="620" windowWidth="38380" windowHeight="20100" activeTab="1" xr2:uid="{9379850F-FB90-5E47-B116-C5679F625322}"/>
+    <workbookView xWindow="28820" yWindow="620" windowWidth="38380" windowHeight="20100" xr2:uid="{9379850F-FB90-5E47-B116-C5679F625322}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>リスクの発生確率</t>
     <phoneticPr fontId="4"/>
@@ -330,20 +330,6 @@
     <t>低</t>
   </si>
   <si>
-    <t>係数の参考文献</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ケイスウ </t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>サンコウブンｋ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>https://ssaits.jp/promapedia/method/paim.html</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>https://example.com</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -611,6 +597,28 @@
     <t>リスク等級の定義の例</t>
     <rPh sb="3" eb="5">
       <t xml:space="preserve">トウキュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引用：PMBOK第６版の知識と手法がこれ１冊でしっかりわかる教科書</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">インヨウ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ダイ６パン </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ハン </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">チシキ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">シュホウ </t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t xml:space="preserve">キョウカショ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1158,6 +1166,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1190,9 +1201,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク 2" xfId="2" xr:uid="{6BD0299D-68F7-3943-980F-7E13BBC483AE}"/>
@@ -1339,23 +1347,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>156865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9440951-CB9B-B2B7-E0B7-0B86F22DB706}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48AB4FB5-2F59-8646-9C2F-60880FB1B0FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,8 +1379,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5689600"/>
-          <a:ext cx="6908800" cy="3340100"/>
+          <a:off x="317500" y="5803900"/>
+          <a:ext cx="7772400" cy="2480965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1681,37 +1689,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23C2C9-06F3-5C40-A4DB-3E27514E555A}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="59" t="s">
-        <v>80</v>
+      <c r="A1" s="47" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="47" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
-        <v>78</v>
+    <row r="34" spans="3:3">
+      <c r="C34" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1731,9 +1739,9 @@
   </sheetPr>
   <dimension ref="A1:Q999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="119" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="119" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1756,10 +1764,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
@@ -1776,82 +1784,82 @@
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="54" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="55"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
       <c r="A3" s="40"/>
       <c r="B3" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.75" customHeight="1">
@@ -1860,29 +1868,29 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="28">
         <v>45297</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>46</v>
-      </c>
       <c r="G4" s="23">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H4" s="23">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="I4" s="27">
         <f>IF(AND($G4&lt;&gt;"",$H4&lt;&gt;""),(G4*H4),"")</f>
-        <v>0.55999999999999994</v>
+        <v>15</v>
       </c>
       <c r="J4" s="26" t="str">
         <f>IF(I4&lt;&gt;"",IF(
@@ -1900,7 +1908,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>25</v>
@@ -1909,13 +1917,13 @@
         <v>45311</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.75" customHeight="1">
@@ -3519,7 +3527,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="119" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3540,10 +3548,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
@@ -3558,74 +3566,74 @@
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1">
       <c r="A2" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="56"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
       <c r="B3" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>75</v>
-      </c>
       <c r="N3" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="24.75" customHeight="1">
@@ -3634,22 +3642,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="46">
         <v>45302</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4" s="23">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H4" s="26" t="str">
         <f>IF(G4&lt;&gt;"",IF(
@@ -3674,7 +3682,7 @@
         <v>45321</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N4" s="20"/>
       <c r="O4" s="19"/>
@@ -5187,8 +5195,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5199,26 +5207,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -5241,7 +5249,7 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A2" s="58"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -5281,26 +5289,26 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -5323,7 +5331,7 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="117" customHeight="1" thickBot="1">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5357,7 +5365,7 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5399,7 +5407,7 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="189" customHeight="1" thickBot="1">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -5439,7 +5447,7 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="58" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5477,7 +5485,7 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="116.25" customHeight="1" thickBot="1">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -5513,7 +5521,7 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5549,7 +5557,7 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="116.25" customHeight="1" thickBot="1">
-      <c r="A10" s="58"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
@@ -5583,26 +5591,26 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="58" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
         <v>5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2">
-        <v>11</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -5625,7 +5633,7 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="117" customHeight="1" thickBot="1">
-      <c r="A12" s="58"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -12285,7 +12293,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12308,10 +12316,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="14">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
@@ -12319,10 +12327,10 @@
         <v>38</v>
       </c>
       <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14">
         <v>3</v>
-      </c>
-      <c r="C3" s="14">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
@@ -12333,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1"/>
@@ -13346,9 +13354,7 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -13370,10 +13376,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="14">
-        <v>0.24</v>
+        <v>12</v>
       </c>
       <c r="C2" s="14">
-        <v>0.72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
@@ -13381,10 +13387,10 @@
         <v>38</v>
       </c>
       <c r="B3" s="14">
-        <v>0.08</v>
+        <v>5</v>
       </c>
       <c r="C3" s="14">
-        <v>0.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
@@ -13392,22 +13398,16 @@
         <v>39</v>
       </c>
       <c r="B4" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="14">
-        <v>7.0000000000000007E-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="17"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
@@ -14404,9 +14404,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{35D59C5C-437A-6844-9329-0D21CF4AE0F9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
